--- a/biology/Zoologie/Hasarius/Hasarius.xlsx
+++ b/biology/Zoologie/Hasarius/Hasarius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hasarius est un genre d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hasarius est un genre d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent sur tous les continents sauf aux pôles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent sur tous les continents sauf aux pôles.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 13/08/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 13/08/2023) :
 Hasarius adansoni (Audouin, 1826)
 Hasarius bellicosus Peckham &amp; Peckham, 1896
 Hasarius cheliceroides Borowiec &amp; Wesołowska, 2002
@@ -603,12 +619,14 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce genre a été décrit par Simon en 1871 dans les Attidae.
-Jacobia[2] a été placé en synonymie par Clark et Benoit en 1977[3].
-Tachyskarthmos[4] a été placé en synonymie par Prószyński en 1984[5].
-Vitia[6] Marples, 1957, préoccupé par Vitia Ramsay, 1876, remplacé par Vitioides par Marples en 1989[7], a été placé en synonymie par Prószyński en 1990[8].
+Jacobia a été placé en synonymie par Clark et Benoit en 1977.
+Tachyskarthmos a été placé en synonymie par Prószyński en 1984.
+Vitia Marples, 1957, préoccupé par Vitia Ramsay, 1876, remplacé par Vitioides par Marples en 1989, a été placé en synonymie par Prószyński en 1990.
 </t>
         </is>
       </c>
@@ -637,7 +655,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1871 : « Révision des Attidae européens. Supplément à la monographie des Attides (Attidae Sund.). » Annales de la Société Entomologique de France, sér. 5, vol. 1, p. 125-230 &amp; 329-360 (texte intégral).</t>
         </is>
